--- a/Graficos/monteCarlo.xlsx
+++ b/Graficos/monteCarlo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leonardo\Desktop\Faculdado_Geral\Faculade\5 SEMESTRE\Projeto de Linguagens de Programação\Prova II\Prova2PLP\Graficos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61FC8016-A9A8-4296-A84E-A64190D87063}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2F3A831-4172-4CAC-B134-03A4EFAF2D44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -131,6 +131,35 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>C</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -192,6 +221,20 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:val>
             <c:numRef>
               <c:f>Plan1!$B$2:$B$101</c:f>
@@ -527,6 +570,65 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR" sz="1000">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Execuções</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -592,6 +694,65 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR" sz="1000">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Tempo em milissegudnos</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -687,6 +848,35 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Java</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -748,6 +938,20 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:val>
             <c:numRef>
               <c:f>Plan1!$D$2:$D$101</c:f>
@@ -1083,6 +1287,65 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR" sz="1000">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Execuções</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1148,6 +1411,65 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR" sz="1000">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Tempo em milissegundos</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1243,6 +1565,35 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Python</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1304,6 +1655,20 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:val>
             <c:numRef>
               <c:f>Plan1!$H$2:$H$101</c:f>
@@ -1639,6 +2004,65 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR" sz="1000">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Execuções</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1704,6 +2128,72 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR" sz="1000" b="0" i="0" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Tempo em milissegundos</a:t>
+                </a:r>
+                <a:endParaRPr lang="pt-BR" sz="1000">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1819,8 +2309,13 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="pt-BR"/>
-              <a:t>Média</a:t>
+              <a:t>Média - Monte</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="pt-BR" baseline="0"/>
+              <a:t> Carlo</a:t>
+            </a:r>
+            <a:endParaRPr lang="pt-BR"/>
           </a:p>
           <a:p>
             <a:pPr>
@@ -1934,13 +2429,13 @@
                   <c:v>38.163550000000008</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>22.648987599000012</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>163.78</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.63</c:v>
+                  <c:v>83.71</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -1952,7 +2447,7 @@
                   <c:v>502.83629179000837</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>188.93</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2049,6 +2544,65 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Tempo em milissegundos</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2101,6 +2655,2171 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Php</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Plan1!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Php</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:val>
+            <c:numRef>
+              <c:f>Plan1!$I$2:$I$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>188</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>201</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>189</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>191</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>189</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>218</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>188</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>188</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>189</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>226</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>189</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>188</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>188</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>189</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>193</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>189</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>188</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>188</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>215</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>188</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>188</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>188</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>188</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>194</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>188</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>188</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>188</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>188</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>189</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>187</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5E58-4EC6-95A1-B10C2212803B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="796646384"/>
+        <c:axId val="796635984"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="796646384"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR" sz="1000">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Execuções</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="796635984"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="796635984"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR" sz="1000" b="0" i="0" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Tempo em milissegundos</a:t>
+                </a:r>
+                <a:endParaRPr lang="pt-BR" sz="1000">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="796646384"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Plan1!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>JavaScript</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:val>
+            <c:numRef>
+              <c:f>Plan1!$E$2:$E$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>81</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-62A6-4F35-996B-A584A5CCE321}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="743068352"/>
+        <c:axId val="743067936"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="743068352"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Execuções</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="743067936"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="743067936"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR" sz="1000" b="0" i="0" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Tempo em milissegundos</a:t>
+                </a:r>
+                <a:endParaRPr lang="pt-BR" sz="1000">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+              <a:p>
+                <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="743068352"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Plan1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Fortran</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:val>
+            <c:numRef>
+              <c:f>Plan1!$C$2:$C$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>51.717002899999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>22.592001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>22.247001600000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22.295005799999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22.142000199999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>22.164001500000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>22.2290001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>22.169992400000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>22.128999700000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>22.070989600000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>22.0830135</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>22.1230087</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>22.083997700000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>22.606998399999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>22.830993700000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>22.238016099999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>22.183984800000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>22.136985800000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>25.071979500000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>22.2200165</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>22.1700363</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22.110044500000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22.403001799999998</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23.375988</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>22.3380318</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>22.7130051</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>22.539020499999999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>22.222042099999999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>22.0609894</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>22.310972199999998</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>22.066951799999998</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>22.049009300000002</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>22.128999700000001</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>22.104024899999999</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>22.069990199999999</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>22.1859818</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>22.096992499999999</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>22.5970154</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>22.644996599999999</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>22.538005800000001</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>22.521972699999999</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>22.545993800000002</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>22.5499878</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>22.823036200000001</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>22.539020499999999</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>22.058963800000001</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>23.232936899999999</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>22.587060900000001</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>22.532104499999999</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>22.5570202</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>22.513984700000002</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>22.4930038</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>22.637962300000002</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>22.472023</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>22.517919500000001</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>22.670984300000001</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>22.086978899999998</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>22.056102800000001</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>22.438049299999999</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>22.1440792</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>22.207975399999999</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>22.113918300000002</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>22.2209702</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>22.101997399999998</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>22.102951000000001</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>22.099971799999999</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>22.155046500000001</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>22.199869199999998</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>22.099018099999999</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>22.068023700000001</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>22.091983800000001</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>22.096872300000001</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>22.147060400000001</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>22.1569538</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>22.433042499999999</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>22.5360394</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>22.559047700000001</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>22.523044599999999</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>22.608995400000001</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>22.683979000000001</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>22.264003800000001</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>22.278070400000001</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>22.354961400000001</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>22.377014200000001</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>22.408008599999999</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>22.107124299999999</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>22.106052399999999</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>22.102117499999999</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>22.671222700000001</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>22.514104799999998</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>23.642063100000001</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>22.350072900000001</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>22.060155900000002</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>22.056102800000001</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>22.073984100000001</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>22.0599174</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>22.0570564</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>22.069931</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>22.053957</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>22.046804399999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B574-4CF6-8883-6D61903A3121}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="746053503"/>
+        <c:axId val="746060159"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="746053503"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Execuções</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="746060159"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="746060159"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Tempo em milissegundos</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="746053503"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -2296,6 +5015,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -3994,6 +6833,1554 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -4352,15 +8739,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>83820</xdr:colOff>
+      <xdr:colOff>83821</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>34290</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>388620</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>34290</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>504093</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4388,15 +8775,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>118110</xdr:rowOff>
+      <xdr:colOff>105508</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>82062</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>580292</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>118110</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4424,15 +8811,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>225136</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>41564</xdr:rowOff>
+      <xdr:colOff>323107</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>63335</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>529936</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>83127</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>598714</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>21771</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4459,16 +8846,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>69273</xdr:colOff>
-      <xdr:row>80</xdr:row>
-      <xdr:rowOff>138546</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>240723</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>32409</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>588818</xdr:colOff>
-      <xdr:row>100</xdr:row>
-      <xdr:rowOff>138546</xdr:rowOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>150668</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>32409</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4488,6 +8875,114 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>326571</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>97971</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>587829</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>141513</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Gráfico 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22F74C1C-E93D-7A69-6A22-A70546F5670F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>272142</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>185055</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>500743</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>10885</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Gráfico 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{533DDA3F-93B4-A1EE-4B42-0091498B15C8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>235525</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>154377</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>435428</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>97971</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Gráfico 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9570F14F-0458-FEB1-5D4F-8FCD90DA90CB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4761,8 +9256,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I104"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:I1"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AE28" sqref="AE28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4797,1103 +9292,2000 @@
       <c r="B2">
         <v>51.508000000000003</v>
       </c>
+      <c r="C2">
+        <v>51.717002899999997</v>
+      </c>
       <c r="D2">
         <v>123</v>
       </c>
       <c r="E2">
-        <v>163</v>
+        <v>90</v>
       </c>
       <c r="H2">
         <v>504.79960441589299</v>
+      </c>
+      <c r="I2">
+        <v>188</v>
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3">
         <v>39.659999999999997</v>
       </c>
+      <c r="C3">
+        <v>22.592001</v>
+      </c>
       <c r="D3">
         <v>153</v>
       </c>
+      <c r="E3">
+        <v>89</v>
+      </c>
       <c r="H3">
         <v>500.20456314086903</v>
+      </c>
+      <c r="I3">
+        <v>185</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>36.496000000000002</v>
       </c>
+      <c r="C4">
+        <v>22.247001600000001</v>
+      </c>
       <c r="D4">
         <v>153</v>
       </c>
+      <c r="E4">
+        <v>77</v>
+      </c>
       <c r="H4">
         <v>533.83302688598599</v>
+      </c>
+      <c r="I4">
+        <v>187</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>36.765000000000001</v>
       </c>
+      <c r="C5">
+        <v>22.295005799999998</v>
+      </c>
       <c r="D5">
         <v>153</v>
       </c>
+      <c r="E5">
+        <v>78</v>
+      </c>
       <c r="H5">
         <v>499.76134300231899</v>
+      </c>
+      <c r="I5">
+        <v>201</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>36.518000000000001</v>
       </c>
+      <c r="C6">
+        <v>22.142000199999998</v>
+      </c>
       <c r="D6">
         <v>153</v>
       </c>
+      <c r="E6">
+        <v>81</v>
+      </c>
       <c r="H6">
         <v>500.70810317993102</v>
+      </c>
+      <c r="I6">
+        <v>187</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>36.372</v>
       </c>
+      <c r="C7">
+        <v>22.164001500000001</v>
+      </c>
       <c r="D7">
         <v>153</v>
       </c>
+      <c r="E7">
+        <v>77</v>
+      </c>
       <c r="H7">
         <v>500.797271728515</v>
+      </c>
+      <c r="I7">
+        <v>189</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>36.43</v>
       </c>
+      <c r="C8">
+        <v>22.2290001</v>
+      </c>
       <c r="D8">
         <v>154</v>
       </c>
+      <c r="E8">
+        <v>85</v>
+      </c>
       <c r="H8">
         <v>499.46236610412598</v>
+      </c>
+      <c r="I8">
+        <v>192</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>36.478999999999999</v>
       </c>
+      <c r="C9">
+        <v>22.169992400000002</v>
+      </c>
       <c r="D9">
         <v>154</v>
       </c>
+      <c r="E9">
+        <v>84</v>
+      </c>
       <c r="H9">
         <v>501.73878669738701</v>
+      </c>
+      <c r="I9">
+        <v>192</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>36.343000000000004</v>
       </c>
+      <c r="C10">
+        <v>22.128999700000001</v>
+      </c>
       <c r="D10">
         <v>154</v>
       </c>
+      <c r="E10">
+        <v>85</v>
+      </c>
       <c r="H10">
         <v>500.032663345336</v>
+      </c>
+      <c r="I10">
+        <v>191</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11">
         <v>37.664000000000001</v>
       </c>
+      <c r="C11">
+        <v>22.070989600000001</v>
+      </c>
       <c r="D11">
         <v>154</v>
       </c>
+      <c r="E11">
+        <v>80</v>
+      </c>
       <c r="H11">
         <v>506.42991065978998</v>
+      </c>
+      <c r="I11">
+        <v>192</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12">
         <v>36.953000000000003</v>
       </c>
+      <c r="C12">
+        <v>22.0830135</v>
+      </c>
       <c r="D12">
         <v>154</v>
       </c>
+      <c r="E12">
+        <v>82</v>
+      </c>
       <c r="H12">
         <v>501.15942955016999</v>
+      </c>
+      <c r="I12">
+        <v>189</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13">
         <v>37.185000000000002</v>
       </c>
+      <c r="C13">
+        <v>22.1230087</v>
+      </c>
       <c r="D13">
         <v>155</v>
       </c>
+      <c r="E13">
+        <v>80</v>
+      </c>
       <c r="H13">
         <v>500.64063072204499</v>
+      </c>
+      <c r="I13">
+        <v>186</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14">
         <v>36.42</v>
       </c>
+      <c r="C14">
+        <v>22.083997700000001</v>
+      </c>
       <c r="D14">
         <v>155</v>
       </c>
+      <c r="E14">
+        <v>80</v>
+      </c>
       <c r="H14">
         <v>500.41389465332003</v>
+      </c>
+      <c r="I14">
+        <v>218</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15">
         <v>38.734999999999999</v>
       </c>
+      <c r="C15">
+        <v>22.606998399999998</v>
+      </c>
       <c r="D15">
         <v>155</v>
       </c>
+      <c r="E15">
+        <v>88</v>
+      </c>
       <c r="H15">
         <v>501.40523910522398</v>
+      </c>
+      <c r="I15">
+        <v>187</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16">
         <v>36.374000000000002</v>
       </c>
+      <c r="C16">
+        <v>22.830993700000001</v>
+      </c>
       <c r="D16">
         <v>155</v>
       </c>
+      <c r="E16">
+        <v>83</v>
+      </c>
       <c r="H16">
         <v>499.47357177734301</v>
       </c>
+      <c r="I16">
+        <v>186</v>
+      </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17">
         <v>36.469000000000001</v>
       </c>
+      <c r="C17">
+        <v>22.238016099999999</v>
+      </c>
       <c r="D17">
         <v>155</v>
       </c>
+      <c r="E17">
+        <v>82</v>
+      </c>
       <c r="H17">
         <v>513.29278945922795</v>
       </c>
+      <c r="I17">
+        <v>188</v>
+      </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18">
         <v>37.057000000000002</v>
       </c>
+      <c r="C18">
+        <v>22.183984800000001</v>
+      </c>
       <c r="D18">
         <v>156</v>
       </c>
+      <c r="E18">
+        <v>76</v>
+      </c>
       <c r="H18">
         <v>498.81887435913001</v>
       </c>
+      <c r="I18">
+        <v>186</v>
+      </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19">
         <v>37.834000000000003</v>
       </c>
+      <c r="C19">
+        <v>22.136985800000001</v>
+      </c>
       <c r="D19">
         <v>156</v>
       </c>
+      <c r="E19">
+        <v>76</v>
+      </c>
       <c r="H19">
         <v>511.12985610961903</v>
       </c>
+      <c r="I19">
+        <v>188</v>
+      </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20">
         <v>36.734000000000002</v>
       </c>
+      <c r="C20">
+        <v>25.071979500000001</v>
+      </c>
       <c r="D20">
         <v>156</v>
       </c>
+      <c r="E20">
+        <v>78</v>
+      </c>
       <c r="H20">
         <v>502.70462036132801</v>
       </c>
+      <c r="I20">
+        <v>187</v>
+      </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21">
         <v>36.487000000000002</v>
       </c>
+      <c r="C21">
+        <v>22.2200165</v>
+      </c>
       <c r="D21">
         <v>156</v>
       </c>
+      <c r="E21">
+        <v>81</v>
+      </c>
       <c r="H21">
         <v>505.71131706237702</v>
       </c>
+      <c r="I21">
+        <v>187</v>
+      </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22">
         <v>36.502000000000002</v>
       </c>
+      <c r="C22">
+        <v>22.1700363</v>
+      </c>
       <c r="D22">
         <v>156</v>
       </c>
+      <c r="E22">
+        <v>82</v>
+      </c>
       <c r="H22">
         <v>499.46236610412598</v>
       </c>
+      <c r="I22">
+        <v>187</v>
+      </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23">
         <v>36.600999999999999</v>
       </c>
+      <c r="C23">
+        <v>22.110044500000001</v>
+      </c>
       <c r="D23">
         <v>157</v>
       </c>
+      <c r="E23">
+        <v>76</v>
+      </c>
       <c r="H23">
         <v>502.71654129028298</v>
       </c>
+      <c r="I23">
+        <v>189</v>
+      </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B24">
         <v>36.381999999999998</v>
       </c>
+      <c r="C24">
+        <v>22.403001799999998</v>
+      </c>
       <c r="D24">
         <v>157</v>
       </c>
+      <c r="E24">
+        <v>82</v>
+      </c>
       <c r="H24">
         <v>501.19423866271899</v>
       </c>
+      <c r="I24">
+        <v>226</v>
+      </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B25">
         <v>38.006</v>
       </c>
+      <c r="C25">
+        <v>23.375988</v>
+      </c>
       <c r="D25">
         <v>157</v>
       </c>
+      <c r="E25">
+        <v>84</v>
+      </c>
       <c r="H25">
         <v>502.48456001281698</v>
       </c>
+      <c r="I25">
+        <v>190</v>
+      </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26">
         <v>41.006999999999998</v>
       </c>
+      <c r="C26">
+        <v>22.3380318</v>
+      </c>
       <c r="D26">
         <v>157</v>
       </c>
+      <c r="E26">
+        <v>81</v>
+      </c>
       <c r="H26">
         <v>498.423814773559</v>
       </c>
+      <c r="I26">
+        <v>187</v>
+      </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B27">
         <v>36.494999999999997</v>
       </c>
+      <c r="C27">
+        <v>22.7130051</v>
+      </c>
       <c r="D27">
         <v>158</v>
       </c>
+      <c r="E27">
+        <v>79</v>
+      </c>
       <c r="H27">
         <v>502.19798088073702</v>
       </c>
+      <c r="I27">
+        <v>186</v>
+      </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B28">
         <v>36.414000000000001</v>
       </c>
+      <c r="C28">
+        <v>22.539020499999999</v>
+      </c>
       <c r="D28">
         <v>158</v>
       </c>
+      <c r="E28">
+        <v>87</v>
+      </c>
       <c r="H28">
         <v>501.13153457641602</v>
       </c>
+      <c r="I28">
+        <v>187</v>
+      </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B29">
         <v>36.340000000000003</v>
       </c>
+      <c r="C29">
+        <v>22.222042099999999</v>
+      </c>
       <c r="D29">
         <v>158</v>
       </c>
+      <c r="E29">
+        <v>84</v>
+      </c>
       <c r="H29">
         <v>501.75261497497502</v>
       </c>
+      <c r="I29">
+        <v>186</v>
+      </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B30">
         <v>37.505000000000003</v>
       </c>
+      <c r="C30">
+        <v>22.0609894</v>
+      </c>
       <c r="D30">
         <v>158</v>
       </c>
+      <c r="E30">
+        <v>80</v>
+      </c>
       <c r="H30">
         <v>499.97973442077603</v>
       </c>
+      <c r="I30">
+        <v>189</v>
+      </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31">
         <v>36.755000000000003</v>
       </c>
+      <c r="C31">
+        <v>22.310972199999998</v>
+      </c>
       <c r="D31">
         <v>158</v>
       </c>
+      <c r="E31">
+        <v>82</v>
+      </c>
       <c r="H31">
         <v>507.83634185790999</v>
       </c>
+      <c r="I31">
+        <v>187</v>
+      </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32">
         <v>36.969000000000001</v>
       </c>
+      <c r="C32">
+        <v>22.066951799999998</v>
+      </c>
       <c r="D32">
         <v>158</v>
       </c>
+      <c r="E32">
+        <v>81</v>
+      </c>
       <c r="H32">
         <v>499.30644035339299</v>
       </c>
+      <c r="I32">
+        <v>187</v>
+      </c>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B33">
         <v>36.548000000000002</v>
       </c>
+      <c r="C33">
+        <v>22.049009300000002</v>
+      </c>
       <c r="D33">
         <v>159</v>
       </c>
+      <c r="E33">
+        <v>84</v>
+      </c>
       <c r="H33">
         <v>519.99926567077603</v>
       </c>
+      <c r="I33">
+        <v>188</v>
+      </c>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B34">
         <v>36.81</v>
       </c>
+      <c r="C34">
+        <v>22.128999700000001</v>
+      </c>
       <c r="D34">
         <v>159</v>
       </c>
+      <c r="E34">
+        <v>106</v>
+      </c>
       <c r="H34">
         <v>498.60668182373001</v>
       </c>
+      <c r="I34">
+        <v>188</v>
+      </c>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B35">
         <v>41.704000000000001</v>
       </c>
+      <c r="C35">
+        <v>22.104024899999999</v>
+      </c>
       <c r="D35">
         <v>159</v>
       </c>
+      <c r="E35">
+        <v>100</v>
+      </c>
       <c r="H35">
         <v>501.11651420593199</v>
       </c>
+      <c r="I35">
+        <v>189</v>
+      </c>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B36">
         <v>36.552999999999997</v>
       </c>
+      <c r="C36">
+        <v>22.069990199999999</v>
+      </c>
       <c r="D36">
         <v>159</v>
       </c>
+      <c r="E36">
+        <v>95</v>
+      </c>
       <c r="H36">
         <v>500.12707710266102</v>
       </c>
+      <c r="I36">
+        <v>193</v>
+      </c>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B37">
         <v>36.476999999999997</v>
       </c>
+      <c r="C37">
+        <v>22.1859818</v>
+      </c>
       <c r="D37">
         <v>159</v>
       </c>
+      <c r="E37">
+        <v>103</v>
+      </c>
       <c r="H37">
         <v>501.10197067260702</v>
       </c>
+      <c r="I37">
+        <v>186</v>
+      </c>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B38">
         <v>36.634</v>
       </c>
+      <c r="C38">
+        <v>22.096992499999999</v>
+      </c>
       <c r="D38">
         <v>160</v>
       </c>
+      <c r="E38">
+        <v>77</v>
+      </c>
       <c r="H38">
         <v>502.68697738647398</v>
       </c>
+      <c r="I38">
+        <v>187</v>
+      </c>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B39">
         <v>37.738999999999997</v>
       </c>
+      <c r="C39">
+        <v>22.5970154</v>
+      </c>
       <c r="D39">
         <v>160</v>
       </c>
+      <c r="E39">
+        <v>89</v>
+      </c>
       <c r="H39">
         <v>501.97577476501402</v>
       </c>
+      <c r="I39">
+        <v>187</v>
+      </c>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B40">
         <v>37.308</v>
       </c>
+      <c r="C40">
+        <v>22.644996599999999</v>
+      </c>
       <c r="D40">
         <v>160</v>
       </c>
+      <c r="E40">
+        <v>84</v>
+      </c>
       <c r="H40">
         <v>499.37105178833002</v>
       </c>
+      <c r="I40">
+        <v>186</v>
+      </c>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B41">
         <v>36.5</v>
       </c>
+      <c r="C41">
+        <v>22.538005800000001</v>
+      </c>
       <c r="D41">
         <v>160</v>
       </c>
+      <c r="E41">
+        <v>83</v>
+      </c>
       <c r="H41">
         <v>506.07585906982399</v>
       </c>
+      <c r="I41">
+        <v>189</v>
+      </c>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B42">
         <v>39.232999999999997</v>
       </c>
+      <c r="C42">
+        <v>22.521972699999999</v>
+      </c>
       <c r="D42">
         <v>160</v>
       </c>
+      <c r="E42">
+        <v>77</v>
+      </c>
       <c r="H42">
         <v>497.74098396301201</v>
       </c>
+      <c r="I42">
+        <v>188</v>
+      </c>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B43">
         <v>36.4</v>
       </c>
+      <c r="C43">
+        <v>22.545993800000002</v>
+      </c>
       <c r="D43">
         <v>162</v>
       </c>
+      <c r="E43">
+        <v>75</v>
+      </c>
       <c r="H43">
         <v>501.48010253906199</v>
       </c>
+      <c r="I43">
+        <v>187</v>
+      </c>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B44">
         <v>36.451999999999998</v>
       </c>
+      <c r="C44">
+        <v>22.5499878</v>
+      </c>
       <c r="D44">
         <v>162</v>
       </c>
+      <c r="E44">
+        <v>81</v>
+      </c>
       <c r="H44">
         <v>502.98118591308503</v>
       </c>
+      <c r="I44">
+        <v>187</v>
+      </c>
     </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B45">
         <v>37.537999999999997</v>
       </c>
+      <c r="C45">
+        <v>22.823036200000001</v>
+      </c>
       <c r="D45">
         <v>162</v>
       </c>
+      <c r="E45">
+        <v>85</v>
+      </c>
       <c r="H45">
         <v>501.49464607238701</v>
       </c>
+      <c r="I45">
+        <v>186</v>
+      </c>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B46">
         <v>36.921999999999997</v>
       </c>
+      <c r="C46">
+        <v>22.539020499999999</v>
+      </c>
       <c r="D46">
         <v>163</v>
       </c>
+      <c r="E46">
+        <v>85</v>
+      </c>
       <c r="H46">
         <v>498.96049499511702</v>
       </c>
+      <c r="I46">
+        <v>190</v>
+      </c>
     </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B47">
         <v>36.567999999999998</v>
       </c>
+      <c r="C47">
+        <v>22.058963800000001</v>
+      </c>
       <c r="D47">
         <v>163</v>
       </c>
+      <c r="E47">
+        <v>86</v>
+      </c>
       <c r="H47">
         <v>502.70366668701098</v>
       </c>
+      <c r="I47">
+        <v>186</v>
+      </c>
     </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B48">
         <v>36.481000000000002</v>
       </c>
+      <c r="C48">
+        <v>23.232936899999999</v>
+      </c>
       <c r="D48">
         <v>163</v>
       </c>
+      <c r="E48">
+        <v>86</v>
+      </c>
       <c r="H48">
         <v>502.30360031127901</v>
       </c>
+      <c r="I48">
+        <v>185</v>
+      </c>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B49">
         <v>36.459000000000003</v>
       </c>
+      <c r="C49">
+        <v>22.587060900000001</v>
+      </c>
       <c r="D49">
         <v>163</v>
       </c>
+      <c r="E49">
+        <v>82</v>
+      </c>
       <c r="H49">
         <v>518.51177215576104</v>
       </c>
+      <c r="I49">
+        <v>188</v>
+      </c>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B50">
         <v>36.887</v>
       </c>
+      <c r="C50">
+        <v>22.532104499999999</v>
+      </c>
       <c r="D50">
         <v>163</v>
       </c>
+      <c r="E50">
+        <v>84</v>
+      </c>
       <c r="H50">
         <v>499.32098388671801</v>
       </c>
+      <c r="I50">
+        <v>198</v>
+      </c>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B51">
         <v>36.39</v>
       </c>
+      <c r="C51">
+        <v>22.5570202</v>
+      </c>
       <c r="D51">
         <v>164</v>
       </c>
+      <c r="E51">
+        <v>87</v>
+      </c>
       <c r="H51">
         <v>508.57353210449202</v>
       </c>
+      <c r="I51">
+        <v>215</v>
+      </c>
     </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B52">
         <v>37.572000000000003</v>
       </c>
+      <c r="C52">
+        <v>22.513984700000002</v>
+      </c>
       <c r="D52">
         <v>164</v>
       </c>
+      <c r="E52">
+        <v>83</v>
+      </c>
       <c r="H52">
         <v>502.17127799987702</v>
       </c>
+      <c r="I52">
+        <v>186</v>
+      </c>
     </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B53">
         <v>40.188000000000002</v>
       </c>
+      <c r="C53">
+        <v>22.4930038</v>
+      </c>
       <c r="D53">
         <v>164</v>
       </c>
+      <c r="E53">
+        <v>94</v>
+      </c>
       <c r="H53">
         <v>504.46939468383698</v>
       </c>
+      <c r="I53">
+        <v>186</v>
+      </c>
     </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B54">
         <v>36.488</v>
       </c>
+      <c r="C54">
+        <v>22.637962300000002</v>
+      </c>
       <c r="D54">
         <v>164</v>
       </c>
+      <c r="E54">
+        <v>83</v>
+      </c>
       <c r="H54">
         <v>500.575542449951</v>
       </c>
+      <c r="I54">
+        <v>187</v>
+      </c>
     </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B55">
         <v>36.409999999999997</v>
       </c>
+      <c r="C55">
+        <v>22.472023</v>
+      </c>
       <c r="D55">
         <v>164</v>
       </c>
+      <c r="E55">
+        <v>86</v>
+      </c>
       <c r="H55">
         <v>504.46105003356899</v>
       </c>
+      <c r="I55">
+        <v>186</v>
+      </c>
     </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B56">
         <v>36.420999999999999</v>
       </c>
+      <c r="C56">
+        <v>22.517919500000001</v>
+      </c>
       <c r="D56">
         <v>165</v>
       </c>
+      <c r="E56">
+        <v>86</v>
+      </c>
       <c r="H56">
         <v>500.58507919311501</v>
       </c>
+      <c r="I56">
+        <v>186</v>
+      </c>
     </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B57">
         <v>37.518000000000001</v>
       </c>
+      <c r="C57">
+        <v>22.670984300000001</v>
+      </c>
       <c r="D57">
         <v>165</v>
       </c>
+      <c r="E57">
+        <v>87</v>
+      </c>
       <c r="H57">
         <v>500.19264221191401</v>
       </c>
+      <c r="I57">
+        <v>185</v>
+      </c>
     </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B58">
         <v>36.521999999999998</v>
       </c>
+      <c r="C58">
+        <v>22.086978899999998</v>
+      </c>
       <c r="D58">
         <v>165</v>
       </c>
+      <c r="E58">
+        <v>82</v>
+      </c>
       <c r="H58">
         <v>497.58625030517499</v>
       </c>
+      <c r="I58">
+        <v>188</v>
+      </c>
     </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B59">
         <v>37.374000000000002</v>
       </c>
+      <c r="C59">
+        <v>22.056102800000001</v>
+      </c>
       <c r="D59">
         <v>165</v>
       </c>
+      <c r="E59">
+        <v>85</v>
+      </c>
       <c r="H59">
         <v>500.29039382934502</v>
       </c>
+      <c r="I59">
+        <v>185</v>
+      </c>
     </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B60">
         <v>36.578000000000003</v>
       </c>
+      <c r="C60">
+        <v>22.438049299999999</v>
+      </c>
       <c r="D60">
         <v>165</v>
       </c>
+      <c r="E60">
+        <v>79</v>
+      </c>
       <c r="H60">
         <v>500.49090385437</v>
       </c>
+      <c r="I60">
+        <v>186</v>
+      </c>
     </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B61">
         <v>36.463999999999999</v>
       </c>
+      <c r="C61">
+        <v>22.1440792</v>
+      </c>
       <c r="D61">
         <v>165</v>
       </c>
+      <c r="E61">
+        <v>76</v>
+      </c>
       <c r="H61">
         <v>506.19482994079499</v>
       </c>
+      <c r="I61">
+        <v>186</v>
+      </c>
     </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B62">
         <v>36.338000000000001</v>
       </c>
+      <c r="C62">
+        <v>22.207975399999999</v>
+      </c>
       <c r="D62">
         <v>166</v>
       </c>
+      <c r="E62">
+        <v>75</v>
+      </c>
       <c r="H62">
         <v>501.53589248657198</v>
       </c>
+      <c r="I62">
+        <v>188</v>
+      </c>
     </row>
-    <row r="63" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B63">
         <v>36.649000000000001</v>
       </c>
+      <c r="C63">
+        <v>22.113918300000002</v>
+      </c>
       <c r="D63">
         <v>168</v>
       </c>
+      <c r="E63">
+        <v>85</v>
+      </c>
       <c r="H63">
         <v>500.246286392211</v>
       </c>
+      <c r="I63">
+        <v>187</v>
+      </c>
     </row>
-    <row r="64" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B64">
         <v>36.472000000000001</v>
       </c>
+      <c r="C64">
+        <v>22.2209702</v>
+      </c>
       <c r="D64">
         <v>168</v>
       </c>
+      <c r="E64">
+        <v>83</v>
+      </c>
       <c r="H64">
         <v>499.22299385070801</v>
       </c>
+      <c r="I64">
+        <v>185</v>
+      </c>
     </row>
-    <row r="65" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B65">
         <v>36.537999999999997</v>
       </c>
+      <c r="C65">
+        <v>22.101997399999998</v>
+      </c>
       <c r="D65">
         <v>168</v>
       </c>
+      <c r="E65">
+        <v>79</v>
+      </c>
       <c r="H65">
         <v>513.48233222961403</v>
       </c>
+      <c r="I65">
+        <v>187</v>
+      </c>
     </row>
-    <row r="66" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B66">
         <v>37.877000000000002</v>
       </c>
+      <c r="C66">
+        <v>22.102951000000001</v>
+      </c>
       <c r="D66">
         <v>168</v>
       </c>
+      <c r="E66">
+        <v>83</v>
+      </c>
       <c r="H66">
         <v>498.41761589050202</v>
       </c>
+      <c r="I66">
+        <v>190</v>
+      </c>
     </row>
-    <row r="67" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B67">
         <v>37.203000000000003</v>
       </c>
+      <c r="C67">
+        <v>22.099971799999999</v>
+      </c>
       <c r="D67">
         <v>169</v>
       </c>
+      <c r="E67">
+        <v>79</v>
+      </c>
       <c r="H67">
         <v>500.68616867065401</v>
       </c>
+      <c r="I67">
+        <v>187</v>
+      </c>
     </row>
-    <row r="68" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B68">
         <v>36.389000000000003</v>
       </c>
+      <c r="C68">
+        <v>22.155046500000001</v>
+      </c>
       <c r="D68">
         <v>169</v>
       </c>
+      <c r="E68">
+        <v>81</v>
+      </c>
       <c r="H68">
         <v>514.31822776794399</v>
       </c>
+      <c r="I68">
+        <v>187</v>
+      </c>
     </row>
-    <row r="69" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B69">
         <v>36.950000000000003</v>
       </c>
+      <c r="C69">
+        <v>22.199869199999998</v>
+      </c>
       <c r="D69">
         <v>169</v>
       </c>
+      <c r="E69">
+        <v>80</v>
+      </c>
       <c r="H69">
         <v>500.38194656372002</v>
       </c>
+      <c r="I69">
+        <v>187</v>
+      </c>
     </row>
-    <row r="70" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B70">
         <v>37.543999999999997</v>
       </c>
+      <c r="C70">
+        <v>22.099018099999999</v>
+      </c>
       <c r="D70">
         <v>169</v>
       </c>
+      <c r="E70">
+        <v>79</v>
+      </c>
       <c r="H70">
         <v>500.42462348937897</v>
       </c>
+      <c r="I70">
+        <v>187</v>
+      </c>
     </row>
-    <row r="71" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B71">
         <v>36.447000000000003</v>
       </c>
+      <c r="C71">
+        <v>22.068023700000001</v>
+      </c>
       <c r="D71">
         <v>169</v>
       </c>
+      <c r="E71">
+        <v>81</v>
+      </c>
       <c r="H71">
         <v>506.50143623352</v>
       </c>
+      <c r="I71">
+        <v>187</v>
+      </c>
     </row>
-    <row r="72" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B72">
         <v>40.878</v>
       </c>
+      <c r="C72">
+        <v>22.091983800000001</v>
+      </c>
       <c r="D72">
         <v>169</v>
       </c>
+      <c r="E72">
+        <v>84</v>
+      </c>
       <c r="H72">
         <v>499.52197074890103</v>
       </c>
+      <c r="I72">
+        <v>188</v>
+      </c>
     </row>
-    <row r="73" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B73">
         <v>37.012999999999998</v>
       </c>
+      <c r="C73">
+        <v>22.096872300000001</v>
+      </c>
       <c r="D73">
         <v>169</v>
       </c>
+      <c r="E73">
+        <v>85</v>
+      </c>
       <c r="H73">
         <v>499.34291839599598</v>
       </c>
+      <c r="I73">
+        <v>186</v>
+      </c>
     </row>
-    <row r="74" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B74">
         <v>36.542000000000002</v>
       </c>
+      <c r="C74">
+        <v>22.147060400000001</v>
+      </c>
       <c r="D74">
         <v>172</v>
       </c>
+      <c r="E74">
+        <v>86</v>
+      </c>
       <c r="H74">
         <v>498.07858467102</v>
       </c>
+      <c r="I74">
+        <v>187</v>
+      </c>
     </row>
-    <row r="75" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B75">
         <v>36.491999999999997</v>
       </c>
+      <c r="C75">
+        <v>22.1569538</v>
+      </c>
       <c r="D75">
         <v>172</v>
       </c>
+      <c r="E75">
+        <v>87</v>
+      </c>
       <c r="H75">
         <v>500.22530555725098</v>
       </c>
+      <c r="I75">
+        <v>186</v>
+      </c>
     </row>
-    <row r="76" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B76">
         <v>36.634</v>
       </c>
+      <c r="C76">
+        <v>22.433042499999999</v>
+      </c>
       <c r="D76">
         <v>172</v>
       </c>
+      <c r="E76">
+        <v>81</v>
+      </c>
       <c r="H76">
         <v>500.65732002258301</v>
       </c>
+      <c r="I76">
+        <v>188</v>
+      </c>
     </row>
-    <row r="77" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B77">
         <v>36.424999999999997</v>
       </c>
+      <c r="C77">
+        <v>22.5360394</v>
+      </c>
       <c r="D77">
         <v>172</v>
       </c>
+      <c r="E77">
+        <v>82</v>
+      </c>
       <c r="H77">
         <v>500.67162513732899</v>
       </c>
+      <c r="I77">
+        <v>216</v>
+      </c>
     </row>
-    <row r="78" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B78">
         <v>36.396999999999998</v>
       </c>
+      <c r="C78">
+        <v>22.559047700000001</v>
+      </c>
       <c r="D78">
         <v>172</v>
       </c>
+      <c r="E78">
+        <v>84</v>
+      </c>
       <c r="H78">
         <v>501.528024673461</v>
       </c>
+      <c r="I78">
+        <v>194</v>
+      </c>
     </row>
-    <row r="79" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B79">
         <v>39.991999999999997</v>
       </c>
+      <c r="C79">
+        <v>22.523044599999999</v>
+      </c>
       <c r="D79">
         <v>172</v>
       </c>
+      <c r="E79">
+        <v>85</v>
+      </c>
       <c r="H79">
         <v>501.01995468139597</v>
       </c>
+      <c r="I79">
+        <v>187</v>
+      </c>
     </row>
-    <row r="80" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B80">
         <v>37.502000000000002</v>
       </c>
+      <c r="C80">
+        <v>22.608995400000001</v>
+      </c>
       <c r="D80">
         <v>173</v>
       </c>
+      <c r="E80">
+        <v>81</v>
+      </c>
       <c r="H80">
         <v>502.70509719848599</v>
       </c>
+      <c r="I80">
+        <v>186</v>
+      </c>
     </row>
-    <row r="81" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B81">
         <v>38.65</v>
       </c>
+      <c r="C81">
+        <v>22.683979000000001</v>
+      </c>
       <c r="D81">
         <v>173</v>
       </c>
+      <c r="E81">
+        <v>88</v>
+      </c>
       <c r="H81">
         <v>523.75173568725495</v>
       </c>
+      <c r="I81">
+        <v>188</v>
+      </c>
     </row>
-    <row r="82" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B82">
         <v>36.506</v>
       </c>
+      <c r="C82">
+        <v>22.264003800000001</v>
+      </c>
       <c r="D82">
         <v>173</v>
       </c>
+      <c r="E82">
+        <v>87</v>
+      </c>
       <c r="H82">
         <v>499.36032295227</v>
       </c>
+      <c r="I82">
+        <v>186</v>
+      </c>
     </row>
-    <row r="83" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B83">
         <v>37.036999999999999</v>
       </c>
+      <c r="C83">
+        <v>22.278070400000001</v>
+      </c>
       <c r="D83">
         <v>173</v>
       </c>
+      <c r="E83">
+        <v>85</v>
+      </c>
       <c r="H83">
         <v>499.52268600463799</v>
       </c>
+      <c r="I83">
+        <v>188</v>
+      </c>
     </row>
-    <row r="84" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B84">
         <v>37.465000000000003</v>
       </c>
+      <c r="C84">
+        <v>22.354961400000001</v>
+      </c>
       <c r="D84">
         <v>173</v>
       </c>
+      <c r="E84">
+        <v>79</v>
+      </c>
       <c r="H84">
         <v>501.19614601135203</v>
       </c>
+      <c r="I84">
+        <v>187</v>
+      </c>
     </row>
-    <row r="85" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B85">
         <v>36.371000000000002</v>
       </c>
+      <c r="C85">
+        <v>22.377014200000001</v>
+      </c>
       <c r="D85">
         <v>173</v>
       </c>
+      <c r="E85">
+        <v>80</v>
+      </c>
       <c r="H85">
         <v>500.06556510925202</v>
       </c>
+      <c r="I85">
+        <v>188</v>
+      </c>
     </row>
-    <row r="86" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B86">
         <v>36.548999999999999</v>
       </c>
+      <c r="C86">
+        <v>22.408008599999999</v>
+      </c>
       <c r="D86">
         <v>173</v>
       </c>
+      <c r="E86">
+        <v>85</v>
+      </c>
       <c r="H86">
         <v>501.18470191955498</v>
       </c>
+      <c r="I86">
+        <v>187</v>
+      </c>
     </row>
-    <row r="87" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B87">
         <v>36.378999999999998</v>
       </c>
+      <c r="C87">
+        <v>22.107124299999999</v>
+      </c>
       <c r="D87">
         <v>174</v>
       </c>
+      <c r="E87">
+        <v>86</v>
+      </c>
       <c r="H87">
         <v>501.21951103210398</v>
       </c>
+      <c r="I87">
+        <v>187</v>
+      </c>
     </row>
-    <row r="88" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B88">
         <v>36.372999999999998</v>
       </c>
+      <c r="C88">
+        <v>22.106052399999999</v>
+      </c>
       <c r="D88">
         <v>174</v>
       </c>
+      <c r="E88">
+        <v>81</v>
+      </c>
       <c r="H88">
         <v>502.20894813537598</v>
       </c>
+      <c r="I88">
+        <v>188</v>
+      </c>
     </row>
-    <row r="89" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B89">
         <v>36.374000000000002</v>
       </c>
+      <c r="C89">
+        <v>22.102117499999999</v>
+      </c>
       <c r="D89">
         <v>174</v>
       </c>
+      <c r="E89">
+        <v>83</v>
+      </c>
       <c r="H89">
         <v>503.62873077392499</v>
       </c>
+      <c r="I89">
+        <v>192</v>
+      </c>
     </row>
-    <row r="90" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B90">
         <v>36.351999999999997</v>
       </c>
+      <c r="C90">
+        <v>22.671222700000001</v>
+      </c>
       <c r="D90">
         <v>174</v>
       </c>
+      <c r="E90">
+        <v>78</v>
+      </c>
       <c r="H90">
         <v>499.47595596313403</v>
       </c>
+      <c r="I90">
+        <v>187</v>
+      </c>
     </row>
-    <row r="91" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B91">
         <v>36.287999999999997</v>
       </c>
+      <c r="C91">
+        <v>22.514104799999998</v>
+      </c>
       <c r="D91">
         <v>174</v>
       </c>
+      <c r="E91">
+        <v>79</v>
+      </c>
       <c r="H91">
         <v>506.65760040283197</v>
       </c>
+      <c r="I91">
+        <v>187</v>
+      </c>
     </row>
-    <row r="92" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B92">
         <v>36.341999999999999</v>
       </c>
+      <c r="C92">
+        <v>23.642063100000001</v>
+      </c>
       <c r="D92">
         <v>174</v>
       </c>
+      <c r="E92">
+        <v>83</v>
+      </c>
       <c r="H92">
         <v>500.20861625671301</v>
       </c>
+      <c r="I92">
+        <v>186</v>
+      </c>
     </row>
-    <row r="93" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B93">
         <v>36.284999999999997</v>
       </c>
+      <c r="C93">
+        <v>22.350072900000001</v>
+      </c>
       <c r="D93">
         <v>174</v>
       </c>
+      <c r="E93">
+        <v>91</v>
+      </c>
       <c r="H93">
         <v>500.209331512451</v>
       </c>
+      <c r="I93">
+        <v>186</v>
+      </c>
     </row>
-    <row r="94" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B94">
         <v>45.265999999999998</v>
       </c>
+      <c r="C94">
+        <v>22.060155900000002</v>
+      </c>
       <c r="D94">
         <v>175</v>
       </c>
+      <c r="E94">
+        <v>100</v>
+      </c>
       <c r="H94">
         <v>499.42517280578602</v>
       </c>
+      <c r="I94">
+        <v>189</v>
+      </c>
     </row>
-    <row r="95" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B95">
         <v>49.7</v>
       </c>
+      <c r="C95">
+        <v>22.056102800000001</v>
+      </c>
       <c r="D95">
         <v>175</v>
       </c>
+      <c r="E95">
+        <v>107</v>
+      </c>
       <c r="H95">
         <v>500.53262710571198</v>
       </c>
+      <c r="I95">
+        <v>187</v>
+      </c>
     </row>
-    <row r="96" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B96">
         <v>55.015000000000001</v>
       </c>
+      <c r="C96">
+        <v>22.073984100000001</v>
+      </c>
       <c r="D96">
         <v>175</v>
       </c>
+      <c r="E96">
+        <v>85</v>
+      </c>
       <c r="H96">
         <v>500.721216201782</v>
+      </c>
+      <c r="I96">
+        <v>187</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B97">
         <v>41.215000000000003</v>
       </c>
+      <c r="C97">
+        <v>22.0599174</v>
+      </c>
       <c r="D97">
         <v>175</v>
       </c>
+      <c r="E97">
+        <v>82</v>
+      </c>
       <c r="H97">
         <v>517.45128631591797</v>
+      </c>
+      <c r="I97">
+        <v>186</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B98">
         <v>51.890999999999998</v>
       </c>
+      <c r="C98">
+        <v>22.0570564</v>
+      </c>
       <c r="D98">
         <v>175</v>
       </c>
+      <c r="E98">
+        <v>87</v>
+      </c>
       <c r="H98">
         <v>499.37558174133301</v>
+      </c>
+      <c r="I98">
+        <v>185</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B99">
         <v>53.237000000000002</v>
       </c>
+      <c r="C99">
+        <v>22.069931</v>
+      </c>
       <c r="D99">
         <v>175</v>
       </c>
+      <c r="E99">
+        <v>86</v>
+      </c>
       <c r="H99">
         <v>500.44465065002402</v>
+      </c>
+      <c r="I99">
+        <v>187</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B100">
         <v>58.969000000000001</v>
       </c>
+      <c r="C100">
+        <v>22.053957</v>
+      </c>
       <c r="D100">
         <v>175</v>
       </c>
+      <c r="E100">
+        <v>78</v>
+      </c>
       <c r="H100">
         <v>500.21028518676701</v>
+      </c>
+      <c r="I100">
+        <v>187</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B101">
         <v>37.212000000000003</v>
       </c>
+      <c r="C101">
+        <v>22.046804399999999</v>
+      </c>
       <c r="D101">
         <v>176</v>
       </c>
+      <c r="E101">
+        <v>81</v>
+      </c>
       <c r="H101">
         <v>506.656646728515</v>
+      </c>
+      <c r="I101">
+        <v>187</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.3">
@@ -5932,7 +11324,7 @@
       </c>
       <c r="C104">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>22.648987599000012</v>
       </c>
       <c r="D104">
         <f t="shared" si="0"/>
@@ -5940,7 +11332,7 @@
       </c>
       <c r="E104">
         <f t="shared" si="0"/>
-        <v>1.63</v>
+        <v>83.71</v>
       </c>
       <c r="F104">
         <f t="shared" si="0"/>
@@ -5956,7 +11348,7 @@
       </c>
       <c r="I104">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>188.93</v>
       </c>
     </row>
   </sheetData>
